--- a/datasets/Brasileirao/match_history/teams/sport_recife.xlsx
+++ b/datasets/Brasileirao/match_history/teams/sport_recife.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P229"/>
+  <dimension ref="A1:R229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,12 +518,20 @@
           <t>team</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>time_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2021-05-30</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>44346</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -578,12 +590,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q2" t="n">
+        <v>879</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.4151979020538666</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2021-06-06</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>44353</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -642,12 +658,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>872</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.4181144834939193</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2021-06-13</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>44360</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -706,12 +726,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q4" t="n">
+        <v>865</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.4210515526273212</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2021-06-17</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>44364</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -770,12 +794,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q5" t="n">
+        <v>861</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.4227391317459628</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2021-06-20</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>44367</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -834,12 +862,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q6" t="n">
+        <v>858</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.4240092533710473</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2021-06-24</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>44371</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -898,12 +930,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q7" t="n">
+        <v>854</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.4257086869858502</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2021-06-27</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>44374</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -962,12 +998,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q8" t="n">
+        <v>851</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.4269877306530259</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2021-06-30</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>44377</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1026,12 +1066,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q9" t="n">
+        <v>848</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.4282706172126597</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2021-07-04</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>44381</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1090,12 +1134,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q10" t="n">
+        <v>844</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4299871304192398</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2021-07-07</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>44384</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1154,12 +1202,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q11" t="n">
+        <v>841</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.4312790286889785</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2021-07-10</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>44387</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1218,12 +1270,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q12" t="n">
+        <v>838</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.4325748084728867</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2021-07-19</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>44396</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1282,12 +1338,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q13" t="n">
+        <v>829</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.4364855537051933</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2021-07-25</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>44402</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1346,12 +1406,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q14" t="n">
+        <v>823</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.4391123395044697</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2021-08-01</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>44409</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1410,12 +1474,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>816</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.4421969092798986</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2021-08-06</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>44414</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1474,12 +1542,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q16" t="n">
+        <v>811</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.4444134305116268</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2021-08-15</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>44423</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1538,12 +1610,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q17" t="n">
+        <v>802</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.4484312042481095</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2021-08-22</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>44430</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1602,12 +1678,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q18" t="n">
+        <v>795</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.4515812349225922</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2021-08-28</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>44436</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1666,12 +1746,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q19" t="n">
+        <v>789</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.4542988670756955</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2021-09-05</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>44444</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1730,12 +1814,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q20" t="n">
+        <v>781</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.457947834420542</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2021-09-13</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>44452</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1794,12 +1882,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q21" t="n">
+        <v>773</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.4616261105831047</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2021-09-18</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>44457</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1858,12 +1950,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q22" t="n">
+        <v>768</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.4639400210916467</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2021-09-26</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>44465</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1922,12 +2018,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q23" t="n">
+        <v>760</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.4676664270099092</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2021-10-03</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>44472</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1986,12 +2086,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q24" t="n">
+        <v>753</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.4709515766082228</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2021-10-06</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>44475</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2050,12 +2154,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q25" t="n">
+        <v>750</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.4723665527410147</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2021-10-09</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>44478</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2114,12 +2222,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q26" t="n">
+        <v>747</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.4737857801759698</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2021-10-14</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>44483</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2178,12 +2290,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q27" t="n">
+        <v>742</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.4761606412819894</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2021-10-17</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>44486</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2242,12 +2358,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q28" t="n">
+        <v>739</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.4775912680730521</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2021-10-25</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>44494</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2306,12 +2426,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q29" t="n">
+        <v>731</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.4814273219743092</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2021-10-28</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>44497</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2370,12 +2494,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q30" t="n">
+        <v>728</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.4828737725312298</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2021-10-31</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>44500</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2434,12 +2562,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q31" t="n">
+        <v>725</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.4843245689553625</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2021-11-06</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>44506</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2498,12 +2630,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q32" t="n">
+        <v>719</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.4872392516732053</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2021-11-10</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>44510</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2562,12 +2698,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q33" t="n">
+        <v>715</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.4891921117963315</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2021-11-14</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>44514</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2626,12 +2766,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q34" t="n">
+        <v>711</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.4911527990036827</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2021-11-18</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>44518</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2690,12 +2834,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q35" t="n">
+        <v>707</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.4931213446662958</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2021-11-27</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>44527</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2754,12 +2902,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q36" t="n">
+        <v>698</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.4975794682320448</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2021-12-03</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>44533</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2818,12 +2970,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q37" t="n">
+        <v>692</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.5005739194116277</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2021-12-06</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>44536</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2882,12 +3038,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q38" t="n">
+        <v>689</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.502077896006773</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2021-12-09</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>44539</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2946,12 +3106,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q39" t="n">
+        <v>686</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.5035863913063714</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2020-08-08</t>
-        </is>
+      <c r="A40" s="2" t="n">
+        <v>44051</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3010,12 +3174,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q40" t="n">
+        <v>1174</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.3091279531286805</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2020-08-13</t>
-        </is>
+      <c r="A41" s="2" t="n">
+        <v>44056</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3074,12 +3242,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q41" t="n">
+        <v>1169</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.3106774634419619</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2020-08-16</t>
-        </is>
+      <c r="A42" s="2" t="n">
+        <v>44059</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3138,12 +3310,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q42" t="n">
+        <v>1166</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.311610895279971</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2020-08-20</t>
-        </is>
+      <c r="A43" s="2" t="n">
+        <v>44063</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3202,12 +3378,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q43" t="n">
+        <v>1162</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.3128598350754292</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2020-08-23</t>
-        </is>
+      <c r="A44" s="2" t="n">
+        <v>44066</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3266,12 +3446,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q44" t="n">
+        <v>1159</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.3137998238588391</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2020-08-30</t>
-        </is>
+      <c r="A45" s="2" t="n">
+        <v>44073</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3330,12 +3514,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q45" t="n">
+        <v>1152</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.3160041286918625</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2020-09-03</t>
-        </is>
+      <c r="A46" s="2" t="n">
+        <v>44077</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3394,12 +3582,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q46" t="n">
+        <v>1148</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.3172706766137436</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2020-09-06</t>
-        </is>
+      <c r="A47" s="2" t="n">
+        <v>44080</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3458,12 +3650,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q47" t="n">
+        <v>1145</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.3182239177904191</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2020-09-09</t>
-        </is>
+      <c r="A48" s="2" t="n">
+        <v>44083</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3522,12 +3718,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q48" t="n">
+        <v>1142</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.3191800229845027</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2020-09-13</t>
-        </is>
+      <c r="A49" s="2" t="n">
+        <v>44087</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3586,12 +3786,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q49" t="n">
+        <v>1138</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.3204592999246187</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2020-09-20</t>
-        </is>
+      <c r="A50" s="2" t="n">
+        <v>44094</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3650,12 +3854,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q50" t="n">
+        <v>1131</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.3227103846286335</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2020-09-23</t>
-        </is>
+      <c r="A51" s="2" t="n">
+        <v>44097</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3714,12 +3922,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q51" t="n">
+        <v>1128</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.3236799694325367</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2020-10-04</t>
-        </is>
+      <c r="A52" s="2" t="n">
+        <v>44108</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3778,12 +3990,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q52" t="n">
+        <v>1117</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.3272601037353453</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2020-10-07</t>
-        </is>
+      <c r="A53" s="2" t="n">
+        <v>44111</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3842,12 +4058,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q53" t="n">
+        <v>1114</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.3282433581907938</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2020-10-11</t>
-        </is>
+      <c r="A54" s="2" t="n">
+        <v>44115</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3906,12 +4126,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q54" t="n">
+        <v>1110</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.3295589610751891</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2020-10-14</t>
-        </is>
+      <c r="A55" s="2" t="n">
+        <v>44118</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3970,12 +4194,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q55" t="n">
+        <v>1107</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.3305491224578677</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2020-10-18</t>
-        </is>
+      <c r="A56" s="2" t="n">
+        <v>44122</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4034,12 +4262,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q56" t="n">
+        <v>1103</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.3318739668700649</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2020-10-24</t>
-        </is>
+      <c r="A57" s="2" t="n">
+        <v>44128</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4098,12 +4330,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q57" t="n">
+        <v>1097</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.3338711963680944</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2020-11-01</t>
-        </is>
+      <c r="A58" s="2" t="n">
+        <v>44136</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4162,12 +4398,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q58" t="n">
+        <v>1089</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.336552878364737</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2020-11-08</t>
-        </is>
+      <c r="A59" s="2" t="n">
+        <v>44143</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4226,12 +4466,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q59" t="n">
+        <v>1082</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.3389170133321328</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2020-11-14</t>
-        </is>
+      <c r="A60" s="2" t="n">
+        <v>44149</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4290,12 +4534,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q60" t="n">
+        <v>1076</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.3409566281377016</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2020-11-23</t>
-        </is>
+      <c r="A61" s="2" t="n">
+        <v>44158</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4354,12 +4602,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q61" t="n">
+        <v>1067</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.3440390880539879</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2020-11-28</t>
-        </is>
+      <c r="A62" s="2" t="n">
+        <v>44163</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4418,12 +4670,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q62" t="n">
+        <v>1062</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.3457635911593078</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2020-12-06</t>
-        </is>
+      <c r="A63" s="2" t="n">
+        <v>44171</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4482,12 +4738,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q63" t="n">
+        <v>1054</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.348540793887764</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2020-12-13</t>
-        </is>
+      <c r="A64" s="2" t="n">
+        <v>44178</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4546,12 +4806,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q64" t="n">
+        <v>1047</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.3509891386542615</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2020-12-19</t>
-        </is>
+      <c r="A65" s="2" t="n">
+        <v>44184</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4610,12 +4874,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q65" t="n">
+        <v>1041</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.353101403945268</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2020-12-26</t>
-        </is>
+      <c r="A66" s="2" t="n">
+        <v>44191</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4674,12 +4942,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q66" t="n">
+        <v>1034</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.3555817849782861</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2021-01-06</t>
-        </is>
+      <c r="A67" s="2" t="n">
+        <v>44202</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4738,12 +5010,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q67" t="n">
+        <v>1023</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.3595147764083289</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2021-01-09</t>
-        </is>
+      <c r="A68" s="2" t="n">
+        <v>44205</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4802,12 +5078,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q68" t="n">
+        <v>1020</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.3605949401730783</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2021-01-16</t>
-        </is>
+      <c r="A69" s="2" t="n">
+        <v>44212</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4866,12 +5146,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q69" t="n">
+        <v>1013</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.3631279599804599</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2021-01-21</t>
-        </is>
+      <c r="A70" s="2" t="n">
+        <v>44217</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4930,12 +5214,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q70" t="n">
+        <v>1008</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.3649481464544937</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2021-01-24</t>
-        </is>
+      <c r="A71" s="2" t="n">
+        <v>44220</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4994,12 +5282,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q71" t="n">
+        <v>1005</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.3660446348040153</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2021-02-01</t>
-        </is>
+      <c r="A72" s="2" t="n">
+        <v>44228</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5058,12 +5350,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q72" t="n">
+        <v>997</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.3689847366091418</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2021-02-05</t>
-        </is>
+      <c r="A73" s="2" t="n">
+        <v>44232</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5122,12 +5418,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q73" t="n">
+        <v>993</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.3704636313732473</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2021-02-10</t>
-        </is>
+      <c r="A74" s="2" t="n">
+        <v>44237</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5186,12 +5486,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q74" t="n">
+        <v>988</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.3723205880531552</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2021-02-15</t>
-        </is>
+      <c r="A75" s="2" t="n">
+        <v>44242</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5250,12 +5554,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q75" t="n">
+        <v>983</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.3741868527671561</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2021-02-21</t>
-        </is>
+      <c r="A76" s="2" t="n">
+        <v>44248</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -5314,12 +5622,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q76" t="n">
+        <v>977</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.3764387227380659</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2021-02-25</t>
-        </is>
+      <c r="A77" s="2" t="n">
+        <v>44252</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -5378,12 +5690,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q77" t="n">
+        <v>973</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.3779474931581651</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2018-04-15</t>
-        </is>
+      <c r="A78" s="2" t="n">
+        <v>43205</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -5438,12 +5754,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q78" t="n">
+        <v>2020</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.1326554650801217</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2018-04-23</t>
-        </is>
+      <c r="A79" s="2" t="n">
+        <v>43213</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -5498,12 +5818,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q79" t="n">
+        <v>2012</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.1337209651182544</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2018-04-29</t>
-        </is>
+      <c r="A80" s="2" t="n">
+        <v>43219</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -5558,12 +5882,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q80" t="n">
+        <v>2006</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.1345257027075204</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2018-05-06</t>
-        </is>
+      <c r="A81" s="2" t="n">
+        <v>43226</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5618,12 +5946,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q81" t="n">
+        <v>1999</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.1354706862100524</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2018-05-13</t>
-        </is>
+      <c r="A82" s="2" t="n">
+        <v>43233</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5678,12 +6010,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q82" t="n">
+        <v>1992</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.1364223078033142</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2018-05-20</t>
-        </is>
+      <c r="A83" s="2" t="n">
+        <v>43240</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5738,12 +6074,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q83" t="n">
+        <v>1985</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.1373806141169542</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2018-05-26</t>
-        </is>
+      <c r="A84" s="2" t="n">
+        <v>43246</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5798,12 +6138,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q84" t="n">
+        <v>1979</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.1382073756058396</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2018-05-30</t>
-        </is>
+      <c r="A85" s="2" t="n">
+        <v>43250</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5858,12 +6202,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q85" t="n">
+        <v>1975</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.1387613122429552</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2018-06-02</t>
-        </is>
+      <c r="A86" s="2" t="n">
+        <v>43253</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -5918,12 +6266,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q86" t="n">
+        <v>1972</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.1391782212304837</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2018-06-06</t>
-        </is>
+      <c r="A87" s="2" t="n">
+        <v>43257</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -5978,12 +6330,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q87" t="n">
+        <v>1968</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.1397360490272289</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2018-06-09</t>
-        </is>
+      <c r="A88" s="2" t="n">
+        <v>43260</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -6038,12 +6394,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q88" t="n">
+        <v>1965</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.1401558866158154</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2018-06-13</t>
-        </is>
+      <c r="A89" s="2" t="n">
+        <v>43264</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -6098,12 +6458,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q89" t="n">
+        <v>1961</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.1407176329058639</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2018-07-18</t>
-        </is>
+      <c r="A90" s="2" t="n">
+        <v>43299</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -6158,12 +6522,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q90" t="n">
+        <v>1926</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.145729954012943</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2018-07-22</t>
-        </is>
+      <c r="A91" s="2" t="n">
+        <v>43303</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -6218,12 +6586,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q91" t="n">
+        <v>1922</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.1463140412246355</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2018-07-26</t>
-        </is>
+      <c r="A92" s="2" t="n">
+        <v>43307</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -6278,12 +6650,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q92" t="n">
+        <v>1918</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.1469004694641088</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2018-07-29</t>
-        </is>
+      <c r="A93" s="2" t="n">
+        <v>43310</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -6338,12 +6714,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q93" t="n">
+        <v>1915</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.1473418325861619</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2018-08-05</t>
-        </is>
+      <c r="A94" s="2" t="n">
+        <v>43317</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -6398,12 +6778,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q94" t="n">
+        <v>1908</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.1483768437269658</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2018-08-12</t>
-        </is>
+      <c r="A95" s="2" t="n">
+        <v>43324</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -6458,12 +6842,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q95" t="n">
+        <v>1901</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.1494191253628002</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2018-08-18</t>
-        </is>
+      <c r="A96" s="2" t="n">
+        <v>43330</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -6518,12 +6906,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q96" t="n">
+        <v>1895</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.1503183350464003</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2018-08-22</t>
-        </is>
+      <c r="A97" s="2" t="n">
+        <v>43334</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -6578,12 +6970,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q97" t="n">
+        <v>1891</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.1509208125382666</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2018-08-25</t>
-        </is>
+      <c r="A98" s="2" t="n">
+        <v>43337</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -6638,12 +7034,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q98" t="n">
+        <v>1888</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.1513742547991911</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2018-09-02</t>
-        </is>
+      <c r="A99" s="2" t="n">
+        <v>43345</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -6698,12 +7098,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q99" t="n">
+        <v>1880</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.1525901057568839</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2018-09-05</t>
-        </is>
+      <c r="A100" s="2" t="n">
+        <v>43348</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -6758,12 +7162,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q100" t="n">
+        <v>1877</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.1530485634168012</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2018-09-08</t>
-        </is>
+      <c r="A101" s="2" t="n">
+        <v>43351</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -6818,12 +7226,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q101" t="n">
+        <v>1874</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.1535083985148223</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2018-09-16</t>
-        </is>
+      <c r="A102" s="2" t="n">
+        <v>43359</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -6878,12 +7290,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q102" t="n">
+        <v>1866</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.1547413910973175</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2018-09-23</t>
-        </is>
+      <c r="A103" s="2" t="n">
+        <v>43366</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -6938,12 +7354,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q103" t="n">
+        <v>1859</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.1558283808606324</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2018-09-30</t>
-        </is>
+      <c r="A104" s="2" t="n">
+        <v>43373</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -6998,12 +7418,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q104" t="n">
+        <v>1852</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.1569230062457882</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2018-10-05</t>
-        </is>
+      <c r="A105" s="2" t="n">
+        <v>43378</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -7058,12 +7482,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q105" t="n">
+        <v>1847</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.1577095860879152</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2018-10-14</t>
-        </is>
+      <c r="A106" s="2" t="n">
+        <v>43387</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -7118,12 +7546,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q106" t="n">
+        <v>1838</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.1591353788058492</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2018-10-20</t>
-        </is>
+      <c r="A107" s="2" t="n">
+        <v>43393</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -7178,12 +7610,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q107" t="n">
+        <v>1832</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.1600930612529801</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2018-10-27</t>
-        </is>
+      <c r="A108" s="2" t="n">
+        <v>43400</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -7238,12 +7674,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q108" t="n">
+        <v>1825</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.1612176441297768</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2018-11-05</t>
-        </is>
+      <c r="A109" s="2" t="n">
+        <v>43409</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -7298,12 +7738,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q109" t="n">
+        <v>1816</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.1626751518736281</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2018-11-11</t>
-        </is>
+      <c r="A110" s="2" t="n">
+        <v>43415</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -7358,12 +7802,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q110" t="n">
+        <v>1810</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.163654136802704</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2018-11-14</t>
-        </is>
+      <c r="A111" s="2" t="n">
+        <v>43418</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -7418,12 +7866,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q111" t="n">
+        <v>1807</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.1641458363937241</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2018-11-18</t>
-        </is>
+      <c r="A112" s="2" t="n">
+        <v>43422</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -7478,12 +7930,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q112" t="n">
+        <v>1803</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.1648037346586314</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2018-11-22</t>
-        </is>
+      <c r="A113" s="2" t="n">
+        <v>43426</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -7538,12 +7994,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q113" t="n">
+        <v>1799</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.1654642697868089</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2018-11-26</t>
-        </is>
+      <c r="A114" s="2" t="n">
+        <v>43430</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -7598,12 +8058,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q114" t="n">
+        <v>1795</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.1661274523468331</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2018-12-02</t>
-        </is>
+      <c r="A115" s="2" t="n">
+        <v>43436</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -7658,12 +8122,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q115" t="n">
+        <v>1789</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.1671272133446262</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2017-05-14</t>
-        </is>
+      <c r="A116" s="2" t="n">
+        <v>42869</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -7718,12 +8186,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q116" t="n">
+        <v>2356</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.09479866045903014</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2017-05-21</t>
-        </is>
+      <c r="A117" s="2" t="n">
+        <v>42876</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -7778,12 +8250,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q117" t="n">
+        <v>2349</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0.0954645790782451</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2017-05-28</t>
-        </is>
+      <c r="A118" s="2" t="n">
+        <v>42883</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -7838,12 +8314,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q118" t="n">
+        <v>2342</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0.09613517548093582</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2017-06-04</t>
-        </is>
+      <c r="A119" s="2" t="n">
+        <v>42890</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -7898,12 +8378,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q119" t="n">
+        <v>2335</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0.09681048252646021</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2017-06-07</t>
-        </is>
+      <c r="A120" s="2" t="n">
+        <v>42893</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -7958,12 +8442,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q120" t="n">
+        <v>2332</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0.09710135005718508</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2017-06-10</t>
-        </is>
+      <c r="A121" s="2" t="n">
+        <v>42896</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -8018,12 +8506,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q121" t="n">
+        <v>2329</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0.09739309150071584</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>2017-06-14</t>
-        </is>
+      <c r="A122" s="2" t="n">
+        <v>42900</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -8078,12 +8570,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q122" t="n">
+        <v>2325</v>
+      </c>
+      <c r="R122" t="n">
+        <v>0.09778344405135005</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>2017-06-18</t>
-        </is>
+      <c r="A123" s="2" t="n">
+        <v>42904</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -8138,12 +8634,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q123" t="n">
+        <v>2321</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0.09817536113917512</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>2017-06-21</t>
-        </is>
+      <c r="A124" s="2" t="n">
+        <v>42907</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -8198,12 +8698,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q124" t="n">
+        <v>2318</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0.09847032945383845</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>2017-06-24</t>
-        </is>
+      <c r="A125" s="2" t="n">
+        <v>42910</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -8258,12 +8762,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q125" t="n">
+        <v>2315</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0.09876618400213154</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>2017-07-02</t>
-        </is>
+      <c r="A126" s="2" t="n">
+        <v>42918</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -8318,12 +8826,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q126" t="n">
+        <v>2307</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0.09955948243696745</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>2017-07-10</t>
-        </is>
+      <c r="A127" s="2" t="n">
+        <v>42926</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -8378,12 +8890,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q127" t="n">
+        <v>2299</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0.1003591527126624</v>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>2017-07-13</t>
-        </is>
+      <c r="A128" s="2" t="n">
+        <v>42929</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -8438,12 +8954,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q128" t="n">
+        <v>2296</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0.1006606822389427</v>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>2017-07-17</t>
-        </is>
+      <c r="A129" s="2" t="n">
+        <v>42933</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -8498,12 +9018,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q129" t="n">
+        <v>2292</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0.1010641313281449</v>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>2017-07-20</t>
-        </is>
+      <c r="A130" s="2" t="n">
+        <v>42936</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -8558,12 +9082,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q130" t="n">
+        <v>2289</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0.1013677789658502</v>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>2017-07-23</t>
-        </is>
+      <c r="A131" s="2" t="n">
+        <v>42939</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -8618,12 +9146,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q131" t="n">
+        <v>2286</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0.1016723389142504</v>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>2017-07-30</t>
-        </is>
+      <c r="A132" s="2" t="n">
+        <v>42946</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -8678,12 +9210,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q132" t="n">
+        <v>2279</v>
+      </c>
+      <c r="R132" t="n">
+        <v>0.102386542081408</v>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>2017-08-02</t>
-        </is>
+      <c r="A133" s="2" t="n">
+        <v>42949</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -8738,12 +9274,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q133" t="n">
+        <v>2276</v>
+      </c>
+      <c r="R133" t="n">
+        <v>0.1026941629081768</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2017-08-05</t>
-        </is>
+      <c r="A134" s="2" t="n">
+        <v>42952</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -8798,12 +9338,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q134" t="n">
+        <v>2273</v>
+      </c>
+      <c r="R134" t="n">
+        <v>0.1030027079831049</v>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>2017-08-13</t>
-        </is>
+      <c r="A135" s="2" t="n">
+        <v>42960</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -8858,12 +9402,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q135" t="n">
+        <v>2265</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0.1038300345407969</v>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>2017-08-20</t>
-        </is>
+      <c r="A136" s="2" t="n">
+        <v>42967</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -8918,12 +9466,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q136" t="n">
+        <v>2258</v>
+      </c>
+      <c r="R136" t="n">
+        <v>0.1045593945644476</v>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>2017-09-02</t>
-        </is>
+      <c r="A137" s="2" t="n">
+        <v>42980</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -8978,12 +9530,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q137" t="n">
+        <v>2245</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0.1059275403735454</v>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>2017-09-10</t>
-        </is>
+      <c r="A138" s="2" t="n">
+        <v>42988</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -9038,12 +9594,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q138" t="n">
+        <v>2237</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0.1067783594350831</v>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>2017-09-17</t>
-        </is>
+      <c r="A139" s="2" t="n">
+        <v>42995</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -9098,12 +9658,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q139" t="n">
+        <v>2230</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0.107528430135795</v>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>2017-09-25</t>
-        </is>
+      <c r="A140" s="2" t="n">
+        <v>43003</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -9158,12 +9722,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q140" t="n">
+        <v>2222</v>
+      </c>
+      <c r="R140" t="n">
+        <v>0.108392107680786</v>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>2017-10-01</t>
-        </is>
+      <c r="A141" s="2" t="n">
+        <v>43009</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -9218,12 +9786,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q141" t="n">
+        <v>2216</v>
+      </c>
+      <c r="R141" t="n">
+        <v>0.109044415292785</v>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>2017-10-12</t>
-        </is>
+      <c r="A142" s="2" t="n">
+        <v>43020</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -9278,12 +9850,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q142" t="n">
+        <v>2205</v>
+      </c>
+      <c r="R142" t="n">
+        <v>0.1102505253044852</v>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>2017-10-15</t>
-        </is>
+      <c r="A143" s="2" t="n">
+        <v>43023</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -9338,12 +9914,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q143" t="n">
+        <v>2202</v>
+      </c>
+      <c r="R143" t="n">
+        <v>0.1105817735042622</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>2017-10-19</t>
-        </is>
+      <c r="A144" s="2" t="n">
+        <v>43027</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -9398,12 +9978,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q144" t="n">
+        <v>2198</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0.1110249864331867</v>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>2017-10-22</t>
-        </is>
+      <c r="A145" s="2" t="n">
+        <v>43030</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -9458,12 +10042,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q145" t="n">
+        <v>2195</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0.1113585615049126</v>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>2017-10-29</t>
-        </is>
+      <c r="A146" s="2" t="n">
+        <v>43037</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -9518,12 +10106,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q146" t="n">
+        <v>2188</v>
+      </c>
+      <c r="R146" t="n">
+        <v>0.1121408060973577</v>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>2017-11-05</t>
-        </is>
+      <c r="A147" s="2" t="n">
+        <v>43044</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -9578,12 +10170,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q147" t="n">
+        <v>2181</v>
+      </c>
+      <c r="R147" t="n">
+        <v>0.1129285456117392</v>
+      </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>2017-11-08</t>
-        </is>
+      <c r="A148" s="2" t="n">
+        <v>43047</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -9638,12 +10234,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q148" t="n">
+        <v>2178</v>
+      </c>
+      <c r="R148" t="n">
+        <v>0.1132678399355895</v>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>2017-11-12</t>
-        </is>
+      <c r="A149" s="2" t="n">
+        <v>43051</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -9698,12 +10298,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q149" t="n">
+        <v>2174</v>
+      </c>
+      <c r="R149" t="n">
+        <v>0.1137218186474508</v>
+      </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>2017-11-16</t>
-        </is>
+      <c r="A150" s="2" t="n">
+        <v>43055</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -9758,12 +10362,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q150" t="n">
+        <v>2170</v>
+      </c>
+      <c r="R150" t="n">
+        <v>0.1141776169108365</v>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>2017-11-19</t>
-        </is>
+      <c r="A151" s="2" t="n">
+        <v>43058</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -9818,12 +10426,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q151" t="n">
+        <v>2167</v>
+      </c>
+      <c r="R151" t="n">
+        <v>0.1145206640750299</v>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>2017-11-25</t>
-        </is>
+      <c r="A152" s="2" t="n">
+        <v>43064</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -9878,12 +10490,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q152" t="n">
+        <v>2161</v>
+      </c>
+      <c r="R152" t="n">
+        <v>0.1152098535603689</v>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>2017-12-03</t>
-        </is>
+      <c r="A153" s="2" t="n">
+        <v>43072</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -9938,12 +10554,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q153" t="n">
+        <v>2153</v>
+      </c>
+      <c r="R153" t="n">
+        <v>0.1161352289551006</v>
+      </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>2016-05-14</t>
-        </is>
+      <c r="A154" s="2" t="n">
+        <v>42504</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -9998,12 +10618,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q154" t="n">
+        <v>2721</v>
+      </c>
+      <c r="R154" t="n">
+        <v>0.06580891259837739</v>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>2016-05-22</t>
-        </is>
+      <c r="A155" s="2" t="n">
+        <v>42512</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -10058,12 +10682,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q155" t="n">
+        <v>2713</v>
+      </c>
+      <c r="R155" t="n">
+        <v>0.06633749541131082</v>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>2016-05-26</t>
-        </is>
+      <c r="A156" s="2" t="n">
+        <v>42516</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -10118,12 +10746,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q156" t="n">
+        <v>2709</v>
+      </c>
+      <c r="R156" t="n">
+        <v>0.06660337680122747</v>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>2016-05-29</t>
-        </is>
+      <c r="A157" s="2" t="n">
+        <v>42519</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -10178,12 +10810,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q157" t="n">
+        <v>2706</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0.06680348694676687</v>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2016-06-01</t>
-        </is>
+      <c r="A158" s="2" t="n">
+        <v>42522</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -10238,12 +10874,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q158" t="n">
+        <v>2703</v>
+      </c>
+      <c r="R158" t="n">
+        <v>0.06700419832413973</v>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>2016-06-05</t>
-        </is>
+      <c r="A159" s="2" t="n">
+        <v>42526</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -10298,12 +10938,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q159" t="n">
+        <v>2699</v>
+      </c>
+      <c r="R159" t="n">
+        <v>0.06727275186644961</v>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>2016-06-12</t>
-        </is>
+      <c r="A160" s="2" t="n">
+        <v>42533</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -10358,12 +11002,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q160" t="n">
+        <v>2692</v>
+      </c>
+      <c r="R160" t="n">
+        <v>0.06774531316443397</v>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>2016-06-15</t>
-        </is>
+      <c r="A161" s="2" t="n">
+        <v>42536</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -10418,12 +11066,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q161" t="n">
+        <v>2689</v>
+      </c>
+      <c r="R161" t="n">
+        <v>0.0679488542629192</v>
+      </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>2016-06-19</t>
-        </is>
+      <c r="A162" s="2" t="n">
+        <v>42540</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -10478,12 +11130,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q162" t="n">
+        <v>2685</v>
+      </c>
+      <c r="R162" t="n">
+        <v>0.06822119399631812</v>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>2016-06-23</t>
-        </is>
+      <c r="A163" s="2" t="n">
+        <v>42544</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -10538,12 +11194,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q163" t="n">
+        <v>2681</v>
+      </c>
+      <c r="R163" t="n">
+        <v>0.06849462527027637</v>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>2016-06-26</t>
-        </is>
+      <c r="A164" s="2" t="n">
+        <v>42547</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -10598,12 +11258,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q164" t="n">
+        <v>2678</v>
+      </c>
+      <c r="R164" t="n">
+        <v>0.06870041768035805</v>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>2016-06-29</t>
-        </is>
+      <c r="A165" s="2" t="n">
+        <v>42550</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -10658,12 +11322,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q165" t="n">
+        <v>2675</v>
+      </c>
+      <c r="R165" t="n">
+        <v>0.06890682839466256</v>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>2016-07-04</t>
-        </is>
+      <c r="A166" s="2" t="n">
+        <v>42555</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -10718,12 +11386,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q166" t="n">
+        <v>2670</v>
+      </c>
+      <c r="R166" t="n">
+        <v>0.06925222530934599</v>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>2016-07-09</t>
-        </is>
+      <c r="A167" s="2" t="n">
+        <v>42560</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -10778,12 +11450,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q167" t="n">
+        <v>2665</v>
+      </c>
+      <c r="R167" t="n">
+        <v>0.06959935353326901</v>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>2016-07-17</t>
-        </is>
+      <c r="A168" s="2" t="n">
+        <v>42568</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -10838,12 +11514,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q168" t="n">
+        <v>2657</v>
+      </c>
+      <c r="R168" t="n">
+        <v>0.0701583814918904</v>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>2016-07-24</t>
-        </is>
+      <c r="A169" s="2" t="n">
+        <v>42575</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -10898,12 +11578,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q169" t="n">
+        <v>2650</v>
+      </c>
+      <c r="R169" t="n">
+        <v>0.0706512130604296</v>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>2016-07-30</t>
-        </is>
+      <c r="A170" s="2" t="n">
+        <v>42581</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -10958,12 +11642,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q170" t="n">
+        <v>2644</v>
+      </c>
+      <c r="R170" t="n">
+        <v>0.07107639460789066</v>
+      </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>2016-08-03</t>
-        </is>
+      <c r="A171" s="2" t="n">
+        <v>42585</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -11018,12 +11706,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q171" t="n">
+        <v>2640</v>
+      </c>
+      <c r="R171" t="n">
+        <v>0.07136126955638605</v>
+      </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>2016-08-07</t>
-        </is>
+      <c r="A172" s="2" t="n">
+        <v>42589</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -11078,12 +11770,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q172" t="n">
+        <v>2636</v>
+      </c>
+      <c r="R172" t="n">
+        <v>0.07164728628671672</v>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>2016-08-13</t>
-        </is>
+      <c r="A173" s="2" t="n">
+        <v>42595</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -11138,12 +11834,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q173" t="n">
+        <v>2630</v>
+      </c>
+      <c r="R173" t="n">
+        <v>0.0720784622387661</v>
+      </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>2016-08-20</t>
-        </is>
+      <c r="A174" s="2" t="n">
+        <v>42602</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -11198,12 +11898,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q174" t="n">
+        <v>2623</v>
+      </c>
+      <c r="R174" t="n">
+        <v>0.07258478152446868</v>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>2016-08-28</t>
-        </is>
+      <c r="A175" s="2" t="n">
+        <v>42610</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -11258,12 +11962,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q175" t="n">
+        <v>2615</v>
+      </c>
+      <c r="R175" t="n">
+        <v>0.07316778869598221</v>
+      </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>2016-09-08</t>
-        </is>
+      <c r="A176" s="2" t="n">
+        <v>42621</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -11318,12 +12026,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q176" t="n">
+        <v>2604</v>
+      </c>
+      <c r="R176" t="n">
+        <v>0.07397707729864236</v>
+      </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>2016-09-11</t>
-        </is>
+      <c r="A177" s="2" t="n">
+        <v>42624</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -11378,12 +12090,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q177" t="n">
+        <v>2601</v>
+      </c>
+      <c r="R177" t="n">
+        <v>0.07419934176053282</v>
+      </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>2016-09-15</t>
-        </is>
+      <c r="A178" s="2" t="n">
+        <v>42628</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -11438,12 +12154,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q178" t="n">
+        <v>2597</v>
+      </c>
+      <c r="R178" t="n">
+        <v>0.07449673351456078</v>
+      </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>2016-09-18</t>
-        </is>
+      <c r="A179" s="2" t="n">
+        <v>42631</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -11498,12 +12218,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q179" t="n">
+        <v>2594</v>
+      </c>
+      <c r="R179" t="n">
+        <v>0.07472055928589216</v>
+      </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>2016-09-24</t>
-        </is>
+      <c r="A180" s="2" t="n">
+        <v>42637</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -11558,12 +12282,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q180" t="n">
+        <v>2588</v>
+      </c>
+      <c r="R180" t="n">
+        <v>0.07517023030565453</v>
+      </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>2016-10-01</t>
-        </is>
+      <c r="A181" s="2" t="n">
+        <v>42644</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -11618,12 +12346,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q181" t="n">
+        <v>2581</v>
+      </c>
+      <c r="R181" t="n">
+        <v>0.07569826789319881</v>
+      </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>2016-10-05</t>
-        </is>
+      <c r="A182" s="2" t="n">
+        <v>42648</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -11678,12 +12410,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q182" t="n">
+        <v>2577</v>
+      </c>
+      <c r="R182" t="n">
+        <v>0.07600166735917104</v>
+      </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>2016-10-12</t>
-        </is>
+      <c r="A183" s="2" t="n">
+        <v>42655</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -11738,12 +12474,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q183" t="n">
+        <v>2570</v>
+      </c>
+      <c r="R183" t="n">
+        <v>0.07653554542391151</v>
+      </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>2016-10-16</t>
-        </is>
+      <c r="A184" s="2" t="n">
+        <v>42659</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -11798,12 +12538,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q184" t="n">
+        <v>2566</v>
+      </c>
+      <c r="R184" t="n">
+        <v>0.07684230070716673</v>
+      </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>2016-10-23</t>
-        </is>
+      <c r="A185" s="2" t="n">
+        <v>42666</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -11858,12 +12602,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q185" t="n">
+        <v>2559</v>
+      </c>
+      <c r="R185" t="n">
+        <v>0.0773820838490006</v>
+      </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>2016-10-27</t>
-        </is>
+      <c r="A186" s="2" t="n">
+        <v>42670</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -11918,12 +12666,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q186" t="n">
+        <v>2555</v>
+      </c>
+      <c r="R186" t="n">
+        <v>0.07769223206730236</v>
+      </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>2016-11-07</t>
-        </is>
+      <c r="A187" s="2" t="n">
+        <v>42681</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -11978,12 +12730,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q187" t="n">
+        <v>2544</v>
+      </c>
+      <c r="R187" t="n">
+        <v>0.07855156428230954</v>
+      </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>2016-11-16</t>
-        </is>
+      <c r="A188" s="2" t="n">
+        <v>42690</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -12038,12 +12794,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q188" t="n">
+        <v>2535</v>
+      </c>
+      <c r="R188" t="n">
+        <v>0.07926171926473155</v>
+      </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>2016-11-20</t>
-        </is>
+      <c r="A189" s="2" t="n">
+        <v>42694</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -12098,12 +12858,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q189" t="n">
+        <v>2531</v>
+      </c>
+      <c r="R189" t="n">
+        <v>0.07957940108184908</v>
+      </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>2016-11-26</t>
-        </is>
+      <c r="A190" s="2" t="n">
+        <v>42700</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -12158,12 +12922,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q190" t="n">
+        <v>2525</v>
+      </c>
+      <c r="R190" t="n">
+        <v>0.08005831278672054</v>
+      </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>2016-12-11</t>
-        </is>
+      <c r="A191" s="2" t="n">
+        <v>42715</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -12218,12 +12986,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q191" t="n">
+        <v>2510</v>
+      </c>
+      <c r="R191" t="n">
+        <v>0.08126823924089167</v>
+      </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>2015-05-10</t>
-        </is>
+      <c r="A192" s="2" t="n">
+        <v>42134</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -12274,12 +13046,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q192" t="n">
+        <v>3091</v>
+      </c>
+      <c r="R192" t="n">
+        <v>0.04545647519361237</v>
+      </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>2015-05-17</t>
-        </is>
+      <c r="A193" s="2" t="n">
+        <v>42141</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -12330,12 +13106,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q193" t="n">
+        <v>3084</v>
+      </c>
+      <c r="R193" t="n">
+        <v>0.04577578680675899</v>
+      </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>2015-05-24</t>
-        </is>
+      <c r="A194" s="2" t="n">
+        <v>42148</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -12386,12 +13166,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q194" t="n">
+        <v>3077</v>
+      </c>
+      <c r="R194" t="n">
+        <v>0.04609734144261812</v>
+      </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>2015-05-31</t>
-        </is>
+      <c r="A195" s="2" t="n">
+        <v>42155</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -12442,12 +13226,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q195" t="n">
+        <v>3070</v>
+      </c>
+      <c r="R195" t="n">
+        <v>0.04642115485743125</v>
+      </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>2015-06-04</t>
-        </is>
+      <c r="A196" s="2" t="n">
+        <v>42159</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -12498,12 +13286,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q196" t="n">
+        <v>3066</v>
+      </c>
+      <c r="R196" t="n">
+        <v>0.04660721134175438</v>
+      </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>2015-06-07</t>
-        </is>
+      <c r="A197" s="2" t="n">
+        <v>42162</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -12554,12 +13346,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q197" t="n">
+        <v>3063</v>
+      </c>
+      <c r="R197" t="n">
+        <v>0.04674724291812053</v>
+      </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>2015-06-13</t>
-        </is>
+      <c r="A198" s="2" t="n">
+        <v>42168</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -12610,12 +13406,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q198" t="n">
+        <v>3057</v>
+      </c>
+      <c r="R198" t="n">
+        <v>0.04702856951142992</v>
+      </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>2015-06-20</t>
-        </is>
+      <c r="A199" s="2" t="n">
+        <v>42175</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -12666,12 +13466,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q199" t="n">
+        <v>3050</v>
+      </c>
+      <c r="R199" t="n">
+        <v>0.04735892439114091</v>
+      </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>2015-06-27</t>
-        </is>
+      <c r="A200" s="2" t="n">
+        <v>42182</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -12722,12 +13526,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q200" t="n">
+        <v>3043</v>
+      </c>
+      <c r="R200" t="n">
+        <v>0.04769159986762284</v>
+      </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>2015-07-01</t>
-        </is>
+      <c r="A201" s="2" t="n">
+        <v>42186</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -12778,12 +13586,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q201" t="n">
+        <v>3039</v>
+      </c>
+      <c r="R201" t="n">
+        <v>0.04788274830911178</v>
+      </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>2015-07-05</t>
-        </is>
+      <c r="A202" s="2" t="n">
+        <v>42190</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -12834,12 +13646,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q202" t="n">
+        <v>3035</v>
+      </c>
+      <c r="R202" t="n">
+        <v>0.04807466287559518</v>
+      </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>2015-07-08</t>
-        </is>
+      <c r="A203" s="2" t="n">
+        <v>42193</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -12890,12 +13706,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q203" t="n">
+        <v>3032</v>
+      </c>
+      <c r="R203" t="n">
+        <v>0.04821910341670324</v>
+      </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>2015-07-12</t>
-        </is>
+      <c r="A204" s="2" t="n">
+        <v>42197</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -12946,12 +13766,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q204" t="n">
+        <v>3028</v>
+      </c>
+      <c r="R204" t="n">
+        <v>0.04841236609804924</v>
+      </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>2015-07-19</t>
-        </is>
+      <c r="A205" s="2" t="n">
+        <v>42204</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -13002,12 +13826,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q205" t="n">
+        <v>3021</v>
+      </c>
+      <c r="R205" t="n">
+        <v>0.04875244153612863</v>
+      </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>2015-07-25</t>
-        </is>
+      <c r="A206" s="2" t="n">
+        <v>42210</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -13058,12 +13886,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q206" t="n">
+        <v>3015</v>
+      </c>
+      <c r="R206" t="n">
+        <v>0.04904583548701673</v>
+      </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>2015-08-02</t>
-        </is>
+      <c r="A207" s="2" t="n">
+        <v>42218</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -13114,12 +13946,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q207" t="n">
+        <v>3007</v>
+      </c>
+      <c r="R207" t="n">
+        <v>0.04943977583127698</v>
+      </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>2015-08-09</t>
-        </is>
+      <c r="A208" s="2" t="n">
+        <v>42225</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -13170,12 +14006,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q208" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R208" t="n">
+        <v>0.04978706836786394</v>
+      </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>2015-08-12</t>
-        </is>
+      <c r="A209" s="2" t="n">
+        <v>42228</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -13226,12 +14066,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q209" t="n">
+        <v>2997</v>
+      </c>
+      <c r="R209" t="n">
+        <v>0.04993665383898514</v>
+      </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>2015-08-16</t>
-        </is>
+      <c r="A210" s="2" t="n">
+        <v>42232</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -13282,12 +14126,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q210" t="n">
+        <v>2993</v>
+      </c>
+      <c r="R210" t="n">
+        <v>0.05013680048076252</v>
+      </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>2015-08-22</t>
-        </is>
+      <c r="A211" s="2" t="n">
+        <v>42238</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -13338,12 +14186,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q211" t="n">
+        <v>2987</v>
+      </c>
+      <c r="R211" t="n">
+        <v>0.05043852555369119</v>
+      </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>2015-08-30</t>
-        </is>
+      <c r="A212" s="2" t="n">
+        <v>42246</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -13394,12 +14246,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q212" t="n">
+        <v>2979</v>
+      </c>
+      <c r="R212" t="n">
+        <v>0.05084365210364792</v>
+      </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>2015-09-02</t>
-        </is>
+      <c r="A213" s="2" t="n">
+        <v>42249</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -13450,12 +14306,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q213" t="n">
+        <v>2976</v>
+      </c>
+      <c r="R213" t="n">
+        <v>0.05099641208536147</v>
+      </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>2015-09-06</t>
-        </is>
+      <c r="A214" s="2" t="n">
+        <v>42253</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -13506,12 +14366,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q214" t="n">
+        <v>2972</v>
+      </c>
+      <c r="R214" t="n">
+        <v>0.05120080624950572</v>
+      </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>2015-09-10</t>
-        </is>
+      <c r="A215" s="2" t="n">
+        <v>42257</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -13562,12 +14426,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q215" t="n">
+        <v>2968</v>
+      </c>
+      <c r="R215" t="n">
+        <v>0.05140601962764225</v>
+      </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>2015-09-13</t>
-        </is>
+      <c r="A216" s="2" t="n">
+        <v>42260</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -13618,12 +14486,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q216" t="n">
+        <v>2965</v>
+      </c>
+      <c r="R216" t="n">
+        <v>0.0515604692451142</v>
+      </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>2015-09-16</t>
-        </is>
+      <c r="A217" s="2" t="n">
+        <v>42263</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -13674,12 +14546,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q217" t="n">
+        <v>2962</v>
+      </c>
+      <c r="R217" t="n">
+        <v>0.05171538290715736</v>
+      </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>2015-09-20</t>
-        </is>
+      <c r="A218" s="2" t="n">
+        <v>42267</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -13730,12 +14606,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q218" t="n">
+        <v>2958</v>
+      </c>
+      <c r="R218" t="n">
+        <v>0.05192265871403207</v>
+      </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>2015-09-27</t>
-        </is>
+      <c r="A219" s="2" t="n">
+        <v>42274</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -13786,12 +14666,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q219" t="n">
+        <v>2951</v>
+      </c>
+      <c r="R219" t="n">
+        <v>0.05228739240361583</v>
+      </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>2015-10-03</t>
-        </is>
+      <c r="A220" s="2" t="n">
+        <v>42280</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -13842,12 +14726,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q220" t="n">
+        <v>2945</v>
+      </c>
+      <c r="R220" t="n">
+        <v>0.05260205981627384</v>
+      </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>2015-10-14</t>
-        </is>
+      <c r="A221" s="2" t="n">
+        <v>42291</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -13898,12 +14786,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q221" t="n">
+        <v>2934</v>
+      </c>
+      <c r="R221" t="n">
+        <v>0.05318387659992216</v>
+      </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>2015-10-18</t>
-        </is>
+      <c r="A222" s="2" t="n">
+        <v>42295</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -13954,12 +14846,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q222" t="n">
+        <v>2930</v>
+      </c>
+      <c r="R222" t="n">
+        <v>0.05339703814519708</v>
+      </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>2015-10-24</t>
-        </is>
+      <c r="A223" s="2" t="n">
+        <v>42301</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -14010,12 +14906,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q223" t="n">
+        <v>2924</v>
+      </c>
+      <c r="R223" t="n">
+        <v>0.05371838344593517</v>
+      </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>2015-10-31</t>
-        </is>
+      <c r="A224" s="2" t="n">
+        <v>42308</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -14066,12 +14966,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q224" t="n">
+        <v>2917</v>
+      </c>
+      <c r="R224" t="n">
+        <v>0.05409573130673365</v>
+      </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>2015-11-08</t>
-        </is>
+      <c r="A225" s="2" t="n">
+        <v>42316</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -14122,12 +15026,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q225" t="n">
+        <v>2909</v>
+      </c>
+      <c r="R225" t="n">
+        <v>0.05453023284600553</v>
+      </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>2015-11-15</t>
-        </is>
+      <c r="A226" s="2" t="n">
+        <v>42323</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -14178,12 +15086,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q226" t="n">
+        <v>2902</v>
+      </c>
+      <c r="R226" t="n">
+        <v>0.05491328358940689</v>
+      </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>2015-11-22</t>
-        </is>
+      <c r="A227" s="2" t="n">
+        <v>42330</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -14234,12 +15146,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q227" t="n">
+        <v>2895</v>
+      </c>
+      <c r="R227" t="n">
+        <v>0.05529902509469138</v>
+      </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>2015-11-29</t>
-        </is>
+      <c r="A228" s="2" t="n">
+        <v>42337</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -14290,12 +15206,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q228" t="n">
+        <v>2888</v>
+      </c>
+      <c r="R228" t="n">
+        <v>0.05568747626326995</v>
+      </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>2015-12-06</t>
-        </is>
+      <c r="A229" s="2" t="n">
+        <v>42344</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -14346,6 +15266,12 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q229" t="n">
+        <v>2881</v>
+      </c>
+      <c r="R229" t="n">
+        <v>0.05607865612932754</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
